--- a/2022/SAMSUNG/OCTOBER/19.10.2022/SAMSUNG Bank Statement OCT-2022.xlsx
+++ b/2022/SAMSUNG/OCTOBER/19.10.2022/SAMSUNG Bank Statement OCT-2022.xlsx
@@ -215,12 +215,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="E22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Mukur Garir Resitration
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="267">
   <si>
     <t>Date</t>
   </si>
@@ -2376,7 +2391,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="451">
+  <cellXfs count="450">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3489,9 +3504,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="34" fillId="48" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3510,6 +3522,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3537,12 +3555,6 @@
     <xf numFmtId="1" fontId="34" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3555,15 +3567,21 @@
     <xf numFmtId="0" fontId="34" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3594,11 +3612,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3643,15 +3664,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="47" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4158,33 +4170,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="389"/>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
+      <c r="A1" s="388"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="390"/>
-      <c r="B2" s="387" t="s">
+      <c r="A2" s="389"/>
+      <c r="B2" s="386" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="390"/>
-      <c r="B3" s="388" t="s">
+      <c r="A3" s="389"/>
+      <c r="B3" s="387" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="387"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="390"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4202,7 +4214,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="390"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4220,7 +4232,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="390"/>
+      <c r="A6" s="389"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4232,7 +4244,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="390"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="26" t="s">
         <v>39</v>
       </c>
@@ -4251,7 +4263,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="390"/>
+      <c r="A8" s="389"/>
       <c r="B8" s="26" t="s">
         <v>40</v>
       </c>
@@ -4270,7 +4282,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="390"/>
+      <c r="A9" s="389"/>
       <c r="B9" s="26" t="s">
         <v>42</v>
       </c>
@@ -4289,7 +4301,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="390"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="26" t="s">
         <v>43</v>
       </c>
@@ -4308,7 +4320,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="390"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="26" t="s">
         <v>44</v>
       </c>
@@ -4327,7 +4339,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="390"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="26" t="s">
         <v>45</v>
       </c>
@@ -4346,7 +4358,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="390"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="26" t="s">
         <v>46</v>
       </c>
@@ -4365,7 +4377,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="390"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="26" t="s">
         <v>47</v>
       </c>
@@ -4384,7 +4396,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="390"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="26" t="s">
         <v>48</v>
       </c>
@@ -4403,7 +4415,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="390"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4416,7 +4428,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="390"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4429,7 +4441,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="390"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4442,7 +4454,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="390"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4455,7 +4467,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="390"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4468,7 +4480,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="390"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4481,7 +4493,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="390"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4494,7 +4506,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="390"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4507,7 +4519,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="390"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4520,7 +4532,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="390"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4533,7 +4545,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="390"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4546,7 +4558,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="390"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4559,7 +4571,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="390"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4572,7 +4584,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="390"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4585,7 +4597,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="390"/>
+      <c r="A30" s="389"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4598,7 +4610,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="390"/>
+      <c r="A31" s="389"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4611,7 +4623,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="390"/>
+      <c r="A32" s="389"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4624,7 +4636,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="390"/>
+      <c r="A33" s="389"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4637,7 +4649,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="390"/>
+      <c r="A34" s="389"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4650,7 +4662,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="390"/>
+      <c r="A35" s="389"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4663,7 +4675,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="390"/>
+      <c r="A36" s="389"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4676,7 +4688,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="390"/>
+      <c r="A37" s="389"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4689,7 +4701,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="390"/>
+      <c r="A38" s="389"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4702,7 +4714,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="390"/>
+      <c r="A39" s="389"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4715,7 +4727,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="390"/>
+      <c r="A40" s="389"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4728,7 +4740,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="390"/>
+      <c r="A41" s="389"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4741,7 +4753,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="390"/>
+      <c r="A42" s="389"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4754,7 +4766,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="390"/>
+      <c r="A43" s="389"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4767,7 +4779,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="390"/>
+      <c r="A44" s="389"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4780,7 +4792,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="390"/>
+      <c r="A45" s="389"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4793,7 +4805,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="390"/>
+      <c r="A46" s="389"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4806,7 +4818,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="390"/>
+      <c r="A47" s="389"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4819,7 +4831,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="390"/>
+      <c r="A48" s="389"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4832,7 +4844,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="390"/>
+      <c r="A49" s="389"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4845,7 +4857,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="390"/>
+      <c r="A50" s="389"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4858,7 +4870,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="390"/>
+      <c r="A51" s="389"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4871,7 +4883,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="390"/>
+      <c r="A52" s="389"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4884,7 +4896,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="390"/>
+      <c r="A53" s="389"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4897,7 +4909,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="390"/>
+      <c r="A54" s="389"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4910,7 +4922,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="390"/>
+      <c r="A55" s="389"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4922,7 +4934,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="390"/>
+      <c r="A56" s="389"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4934,7 +4946,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="390"/>
+      <c r="A57" s="389"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4946,7 +4958,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="390"/>
+      <c r="A58" s="389"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4958,7 +4970,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="390"/>
+      <c r="A59" s="389"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4970,7 +4982,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="390"/>
+      <c r="A60" s="389"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4982,7 +4994,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="390"/>
+      <c r="A61" s="389"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4994,7 +5006,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="390"/>
+      <c r="A62" s="389"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -5006,7 +5018,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="390"/>
+      <c r="A63" s="389"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -5018,7 +5030,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="390"/>
+      <c r="A64" s="389"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -5030,7 +5042,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="390"/>
+      <c r="A65" s="389"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -5042,7 +5054,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="390"/>
+      <c r="A66" s="389"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -5054,7 +5066,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="390"/>
+      <c r="A67" s="389"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -5066,7 +5078,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="390"/>
+      <c r="A68" s="389"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -5078,7 +5090,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="390"/>
+      <c r="A69" s="389"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -5090,7 +5102,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="390"/>
+      <c r="A70" s="389"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -5102,7 +5114,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="390"/>
+      <c r="A71" s="389"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -5114,7 +5126,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="390"/>
+      <c r="A72" s="389"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -5126,7 +5138,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="390"/>
+      <c r="A73" s="389"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -5138,7 +5150,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="390"/>
+      <c r="A74" s="389"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -5150,7 +5162,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="390"/>
+      <c r="A75" s="389"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -5162,7 +5174,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="390"/>
+      <c r="A76" s="389"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -5174,7 +5186,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="390"/>
+      <c r="A77" s="389"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5186,7 +5198,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="390"/>
+      <c r="A78" s="389"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5198,7 +5210,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="390"/>
+      <c r="A79" s="389"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5210,7 +5222,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="390"/>
+      <c r="A80" s="389"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5222,7 +5234,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="390"/>
+      <c r="A81" s="389"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5234,7 +5246,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="390"/>
+      <c r="A82" s="389"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5246,7 +5258,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="390"/>
+      <c r="A83" s="389"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5286,7 +5298,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5303,33 +5315,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A1" s="389"/>
-      <c r="B1" s="389"/>
-      <c r="C1" s="389"/>
-      <c r="D1" s="389"/>
-      <c r="E1" s="389"/>
-      <c r="F1" s="389"/>
+      <c r="A1" s="388"/>
+      <c r="B1" s="388"/>
+      <c r="C1" s="388"/>
+      <c r="D1" s="388"/>
+      <c r="E1" s="388"/>
+      <c r="F1" s="388"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="A2" s="390"/>
-      <c r="B2" s="387" t="s">
+      <c r="A2" s="389"/>
+      <c r="B2" s="386" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="386"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A3" s="390"/>
-      <c r="B3" s="388" t="s">
+      <c r="A3" s="389"/>
+      <c r="B3" s="387" t="s">
         <v>199</v>
       </c>
-      <c r="C3" s="388"/>
-      <c r="D3" s="388"/>
-      <c r="E3" s="388"/>
+      <c r="C3" s="387"/>
+      <c r="D3" s="387"/>
+      <c r="E3" s="387"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A4" s="390"/>
+      <c r="A4" s="389"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +5359,7 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="390"/>
+      <c r="A5" s="389"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5365,7 +5377,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="390"/>
+      <c r="A6" s="389"/>
       <c r="B6" s="26"/>
       <c r="C6" s="208"/>
       <c r="D6" s="208"/>
@@ -5377,7 +5389,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="390"/>
+      <c r="A7" s="389"/>
       <c r="B7" s="26" t="s">
         <v>205</v>
       </c>
@@ -5397,7 +5409,7 @@
       <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="390"/>
+      <c r="A8" s="389"/>
       <c r="B8" s="26" t="s">
         <v>207</v>
       </c>
@@ -5417,7 +5429,7 @@
       <c r="I8" s="21"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="390"/>
+      <c r="A9" s="389"/>
       <c r="B9" s="26" t="s">
         <v>213</v>
       </c>
@@ -5437,7 +5449,7 @@
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="390"/>
+      <c r="A10" s="389"/>
       <c r="B10" s="26" t="s">
         <v>223</v>
       </c>
@@ -5457,7 +5469,7 @@
       <c r="I10" s="21"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="390"/>
+      <c r="A11" s="389"/>
       <c r="B11" s="26" t="s">
         <v>232</v>
       </c>
@@ -5477,7 +5489,7 @@
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="390"/>
+      <c r="A12" s="389"/>
       <c r="B12" s="26" t="s">
         <v>233</v>
       </c>
@@ -5497,7 +5509,7 @@
       <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="390"/>
+      <c r="A13" s="389"/>
       <c r="B13" s="26" t="s">
         <v>234</v>
       </c>
@@ -5517,7 +5529,7 @@
       <c r="I13" s="21"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="390"/>
+      <c r="A14" s="389"/>
       <c r="B14" s="26" t="s">
         <v>235</v>
       </c>
@@ -5537,7 +5549,7 @@
       <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="390"/>
+      <c r="A15" s="389"/>
       <c r="B15" s="26" t="s">
         <v>238</v>
       </c>
@@ -5557,7 +5569,7 @@
       <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="390"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="26" t="s">
         <v>240</v>
       </c>
@@ -5577,7 +5589,7 @@
       <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="390"/>
+      <c r="A17" s="389"/>
       <c r="B17" s="26" t="s">
         <v>242</v>
       </c>
@@ -5597,7 +5609,7 @@
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="390"/>
+      <c r="A18" s="389"/>
       <c r="B18" s="26" t="s">
         <v>246</v>
       </c>
@@ -5617,7 +5629,7 @@
       <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="390"/>
+      <c r="A19" s="389"/>
       <c r="B19" s="26" t="s">
         <v>254</v>
       </c>
@@ -5637,7 +5649,7 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="390"/>
+      <c r="A20" s="389"/>
       <c r="B20" s="26" t="s">
         <v>255</v>
       </c>
@@ -5657,7 +5669,7 @@
       <c r="I20" s="21"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="390"/>
+      <c r="A21" s="389"/>
       <c r="B21" s="26" t="s">
         <v>257</v>
       </c>
@@ -5677,10 +5689,16 @@
       <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="390"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="210"/>
+      <c r="A22" s="389"/>
+      <c r="B22" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="208">
+        <v>200000</v>
+      </c>
+      <c r="D22" s="210">
+        <v>200000</v>
+      </c>
       <c r="E22" s="209">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5691,7 +5709,7 @@
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="390"/>
+      <c r="A23" s="389"/>
       <c r="B23" s="26"/>
       <c r="C23" s="208"/>
       <c r="D23" s="208"/>
@@ -5705,7 +5723,7 @@
       <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="390"/>
+      <c r="A24" s="389"/>
       <c r="B24" s="26"/>
       <c r="C24" s="208"/>
       <c r="D24" s="210"/>
@@ -5719,7 +5737,7 @@
       <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="390"/>
+      <c r="A25" s="389"/>
       <c r="B25" s="26"/>
       <c r="C25" s="208"/>
       <c r="D25" s="208"/>
@@ -5733,7 +5751,7 @@
       <c r="I25" s="21"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="390"/>
+      <c r="A26" s="389"/>
       <c r="B26" s="26"/>
       <c r="C26" s="208"/>
       <c r="D26" s="208"/>
@@ -5747,7 +5765,7 @@
       <c r="I26" s="21"/>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="390"/>
+      <c r="A27" s="389"/>
       <c r="B27" s="26"/>
       <c r="C27" s="208"/>
       <c r="D27" s="208"/>
@@ -5761,7 +5779,7 @@
       <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="390"/>
+      <c r="A28" s="389"/>
       <c r="B28" s="26"/>
       <c r="C28" s="208"/>
       <c r="D28" s="210"/>
@@ -5775,7 +5793,7 @@
       <c r="I28" s="21"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="390"/>
+      <c r="A29" s="389"/>
       <c r="B29" s="26"/>
       <c r="C29" s="208"/>
       <c r="D29" s="208"/>
@@ -5783,13 +5801,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F29" s="391"/>
-      <c r="G29" s="392"/>
+      <c r="F29" s="390"/>
+      <c r="G29" s="391"/>
       <c r="H29" s="21"/>
       <c r="I29" s="21"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="390"/>
+      <c r="A30" s="389"/>
       <c r="B30" s="26"/>
       <c r="C30" s="208"/>
       <c r="D30" s="208"/>
@@ -5803,7 +5821,7 @@
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="390"/>
+      <c r="A31" s="389"/>
       <c r="B31" s="26"/>
       <c r="C31" s="208"/>
       <c r="D31" s="208"/>
@@ -5817,7 +5835,7 @@
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="390"/>
+      <c r="A32" s="389"/>
       <c r="B32" s="26"/>
       <c r="C32" s="208"/>
       <c r="D32" s="208"/>
@@ -5831,7 +5849,7 @@
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="390"/>
+      <c r="A33" s="389"/>
       <c r="B33" s="26"/>
       <c r="C33" s="208"/>
       <c r="D33" s="210"/>
@@ -5845,7 +5863,7 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="390"/>
+      <c r="A34" s="389"/>
       <c r="B34" s="26"/>
       <c r="C34" s="208"/>
       <c r="D34" s="208"/>
@@ -5859,7 +5877,7 @@
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="390"/>
+      <c r="A35" s="389"/>
       <c r="B35" s="26"/>
       <c r="C35" s="208"/>
       <c r="D35" s="208"/>
@@ -5873,7 +5891,7 @@
       <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="390"/>
+      <c r="A36" s="389"/>
       <c r="B36" s="26"/>
       <c r="C36" s="208"/>
       <c r="D36" s="208"/>
@@ -5887,7 +5905,7 @@
       <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="390"/>
+      <c r="A37" s="389"/>
       <c r="B37" s="26"/>
       <c r="C37" s="208"/>
       <c r="D37" s="208"/>
@@ -5901,7 +5919,7 @@
       <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="390"/>
+      <c r="A38" s="389"/>
       <c r="B38" s="26"/>
       <c r="C38" s="208"/>
       <c r="D38" s="208"/>
@@ -5915,7 +5933,7 @@
       <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="390"/>
+      <c r="A39" s="389"/>
       <c r="B39" s="26"/>
       <c r="C39" s="208"/>
       <c r="D39" s="208"/>
@@ -5929,7 +5947,7 @@
       <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="390"/>
+      <c r="A40" s="389"/>
       <c r="B40" s="26"/>
       <c r="C40" s="208"/>
       <c r="D40" s="208"/>
@@ -5943,7 +5961,7 @@
       <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="390"/>
+      <c r="A41" s="389"/>
       <c r="B41" s="26"/>
       <c r="C41" s="208"/>
       <c r="D41" s="208"/>
@@ -5957,7 +5975,7 @@
       <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="390"/>
+      <c r="A42" s="389"/>
       <c r="B42" s="26"/>
       <c r="C42" s="208"/>
       <c r="D42" s="208"/>
@@ -5971,7 +5989,7 @@
       <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="390"/>
+      <c r="A43" s="389"/>
       <c r="B43" s="26"/>
       <c r="C43" s="208"/>
       <c r="D43" s="208"/>
@@ -5985,7 +6003,7 @@
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="390"/>
+      <c r="A44" s="389"/>
       <c r="B44" s="26"/>
       <c r="C44" s="208"/>
       <c r="D44" s="208"/>
@@ -5999,7 +6017,7 @@
       <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="390"/>
+      <c r="A45" s="389"/>
       <c r="B45" s="26"/>
       <c r="C45" s="208"/>
       <c r="D45" s="208"/>
@@ -6013,7 +6031,7 @@
       <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="390"/>
+      <c r="A46" s="389"/>
       <c r="B46" s="26"/>
       <c r="C46" s="208"/>
       <c r="D46" s="208"/>
@@ -6027,7 +6045,7 @@
       <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="390"/>
+      <c r="A47" s="389"/>
       <c r="B47" s="26"/>
       <c r="C47" s="208"/>
       <c r="D47" s="208"/>
@@ -6041,7 +6059,7 @@
       <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="390"/>
+      <c r="A48" s="389"/>
       <c r="B48" s="26"/>
       <c r="C48" s="208"/>
       <c r="D48" s="208"/>
@@ -6055,7 +6073,7 @@
       <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="390"/>
+      <c r="A49" s="389"/>
       <c r="B49" s="26"/>
       <c r="C49" s="208"/>
       <c r="D49" s="208"/>
@@ -6069,7 +6087,7 @@
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9">
-      <c r="A50" s="390"/>
+      <c r="A50" s="389"/>
       <c r="B50" s="26"/>
       <c r="C50" s="208"/>
       <c r="D50" s="208"/>
@@ -6083,7 +6101,7 @@
       <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="390"/>
+      <c r="A51" s="389"/>
       <c r="B51" s="26"/>
       <c r="C51" s="208"/>
       <c r="D51" s="208"/>
@@ -6097,7 +6115,7 @@
       <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="390"/>
+      <c r="A52" s="389"/>
       <c r="B52" s="26"/>
       <c r="C52" s="208"/>
       <c r="D52" s="208"/>
@@ -6111,7 +6129,7 @@
       <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="390"/>
+      <c r="A53" s="389"/>
       <c r="B53" s="26"/>
       <c r="C53" s="208"/>
       <c r="D53" s="208"/>
@@ -6125,7 +6143,7 @@
       <c r="I53" s="21"/>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="390"/>
+      <c r="A54" s="389"/>
       <c r="B54" s="26"/>
       <c r="C54" s="208"/>
       <c r="D54" s="208"/>
@@ -6139,7 +6157,7 @@
       <c r="I54" s="21"/>
     </row>
     <row r="55" spans="1:9">
-      <c r="A55" s="390"/>
+      <c r="A55" s="389"/>
       <c r="B55" s="26"/>
       <c r="C55" s="208"/>
       <c r="D55" s="208"/>
@@ -6153,7 +6171,7 @@
       <c r="I55" s="21"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="390"/>
+      <c r="A56" s="389"/>
       <c r="B56" s="26"/>
       <c r="C56" s="208"/>
       <c r="D56" s="208"/>
@@ -6167,7 +6185,7 @@
       <c r="I56" s="21"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="390"/>
+      <c r="A57" s="389"/>
       <c r="B57" s="26"/>
       <c r="C57" s="208"/>
       <c r="D57" s="208"/>
@@ -6178,7 +6196,7 @@
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58" s="390"/>
+      <c r="A58" s="389"/>
       <c r="B58" s="26"/>
       <c r="C58" s="208"/>
       <c r="D58" s="208"/>
@@ -6189,7 +6207,7 @@
       <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:9">
-      <c r="A59" s="390"/>
+      <c r="A59" s="389"/>
       <c r="B59" s="26"/>
       <c r="C59" s="208"/>
       <c r="D59" s="208"/>
@@ -6200,7 +6218,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="390"/>
+      <c r="A60" s="389"/>
       <c r="B60" s="26"/>
       <c r="C60" s="208"/>
       <c r="D60" s="208"/>
@@ -6211,7 +6229,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="390"/>
+      <c r="A61" s="389"/>
       <c r="B61" s="26"/>
       <c r="C61" s="208"/>
       <c r="D61" s="208"/>
@@ -6222,7 +6240,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="390"/>
+      <c r="A62" s="389"/>
       <c r="B62" s="26"/>
       <c r="C62" s="208"/>
       <c r="D62" s="208"/>
@@ -6233,7 +6251,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="390"/>
+      <c r="A63" s="389"/>
       <c r="B63" s="26"/>
       <c r="C63" s="208"/>
       <c r="D63" s="208"/>
@@ -6244,7 +6262,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="390"/>
+      <c r="A64" s="389"/>
       <c r="B64" s="26"/>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -6255,7 +6273,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="390"/>
+      <c r="A65" s="389"/>
       <c r="B65" s="26"/>
       <c r="C65" s="208"/>
       <c r="D65" s="208"/>
@@ -6266,7 +6284,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="390"/>
+      <c r="A66" s="389"/>
       <c r="B66" s="26"/>
       <c r="C66" s="208"/>
       <c r="D66" s="208"/>
@@ -6277,7 +6295,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="390"/>
+      <c r="A67" s="389"/>
       <c r="B67" s="26"/>
       <c r="C67" s="208"/>
       <c r="D67" s="208"/>
@@ -6288,7 +6306,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="390"/>
+      <c r="A68" s="389"/>
       <c r="B68" s="26"/>
       <c r="C68" s="208"/>
       <c r="D68" s="208"/>
@@ -6299,7 +6317,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="390"/>
+      <c r="A69" s="389"/>
       <c r="B69" s="26"/>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -6310,7 +6328,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="390"/>
+      <c r="A70" s="389"/>
       <c r="B70" s="26"/>
       <c r="C70" s="208"/>
       <c r="D70" s="208"/>
@@ -6321,7 +6339,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="390"/>
+      <c r="A71" s="389"/>
       <c r="B71" s="26"/>
       <c r="C71" s="208"/>
       <c r="D71" s="208"/>
@@ -6332,7 +6350,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="390"/>
+      <c r="A72" s="389"/>
       <c r="B72" s="26"/>
       <c r="C72" s="208"/>
       <c r="D72" s="208"/>
@@ -6343,7 +6361,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="390"/>
+      <c r="A73" s="389"/>
       <c r="B73" s="26"/>
       <c r="C73" s="208"/>
       <c r="D73" s="208"/>
@@ -6354,7 +6372,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="390"/>
+      <c r="A74" s="389"/>
       <c r="B74" s="26"/>
       <c r="C74" s="208"/>
       <c r="D74" s="208"/>
@@ -6365,7 +6383,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="390"/>
+      <c r="A75" s="389"/>
       <c r="B75" s="26"/>
       <c r="C75" s="208"/>
       <c r="D75" s="208"/>
@@ -6376,7 +6394,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="390"/>
+      <c r="A76" s="389"/>
       <c r="B76" s="26"/>
       <c r="C76" s="208"/>
       <c r="D76" s="208"/>
@@ -6387,7 +6405,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="390"/>
+      <c r="A77" s="389"/>
       <c r="B77" s="26"/>
       <c r="C77" s="208"/>
       <c r="D77" s="208"/>
@@ -6398,7 +6416,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="390"/>
+      <c r="A78" s="389"/>
       <c r="B78" s="26"/>
       <c r="C78" s="208"/>
       <c r="D78" s="208"/>
@@ -6409,7 +6427,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="390"/>
+      <c r="A79" s="389"/>
       <c r="B79" s="26"/>
       <c r="C79" s="208"/>
       <c r="D79" s="208"/>
@@ -6421,7 +6439,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="390"/>
+      <c r="A80" s="389"/>
       <c r="B80" s="26"/>
       <c r="C80" s="208"/>
       <c r="D80" s="208"/>
@@ -6433,7 +6451,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="390"/>
+      <c r="A81" s="389"/>
       <c r="B81" s="26"/>
       <c r="C81" s="208"/>
       <c r="D81" s="208"/>
@@ -6445,7 +6463,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="390"/>
+      <c r="A82" s="389"/>
       <c r="B82" s="26"/>
       <c r="C82" s="208"/>
       <c r="D82" s="208"/>
@@ -6457,15 +6475,15 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="390"/>
+      <c r="A83" s="389"/>
       <c r="B83" s="31"/>
       <c r="C83" s="209">
         <f>SUM(C5:C72)</f>
-        <v>3050000</v>
+        <v>3250000</v>
       </c>
       <c r="D83" s="209">
         <f>SUM(D5:D77)</f>
-        <v>3050000</v>
+        <v>3250000</v>
       </c>
       <c r="E83" s="211">
         <f>E71</f>
@@ -6499,9 +6517,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA320"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T37" sqref="T37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6521,76 +6539,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25">
-      <c r="A1" s="393" t="s">
+      <c r="A1" s="394" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="393"/>
-      <c r="C1" s="393"/>
-      <c r="D1" s="393"/>
-      <c r="E1" s="393"/>
-      <c r="F1" s="393"/>
-      <c r="G1" s="393"/>
-      <c r="H1" s="393"/>
-      <c r="I1" s="393"/>
-      <c r="J1" s="393"/>
-      <c r="K1" s="393"/>
-      <c r="L1" s="393"/>
-      <c r="M1" s="393"/>
-      <c r="N1" s="393"/>
-      <c r="O1" s="393"/>
-      <c r="P1" s="393"/>
-      <c r="Q1" s="393"/>
-      <c r="R1" s="393"/>
-      <c r="S1" s="393"/>
-      <c r="T1" s="393"/>
+      <c r="B1" s="394"/>
+      <c r="C1" s="394"/>
+      <c r="D1" s="394"/>
+      <c r="E1" s="394"/>
+      <c r="F1" s="394"/>
+      <c r="G1" s="394"/>
+      <c r="H1" s="394"/>
+      <c r="I1" s="394"/>
+      <c r="J1" s="394"/>
+      <c r="K1" s="394"/>
+      <c r="L1" s="394"/>
+      <c r="M1" s="394"/>
+      <c r="N1" s="394"/>
+      <c r="O1" s="394"/>
+      <c r="P1" s="394"/>
+      <c r="Q1" s="394"/>
+      <c r="R1" s="394"/>
+      <c r="S1" s="394"/>
+      <c r="T1" s="394"/>
     </row>
     <row r="2" spans="1:27" s="59" customFormat="1" ht="18">
-      <c r="A2" s="394" t="s">
+      <c r="A2" s="395" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="394"/>
-      <c r="C2" s="394"/>
-      <c r="D2" s="394"/>
-      <c r="E2" s="394"/>
-      <c r="F2" s="394"/>
-      <c r="G2" s="394"/>
-      <c r="H2" s="394"/>
-      <c r="I2" s="394"/>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="394"/>
-      <c r="M2" s="394"/>
-      <c r="N2" s="394"/>
-      <c r="O2" s="394"/>
-      <c r="P2" s="394"/>
-      <c r="Q2" s="394"/>
-      <c r="R2" s="394"/>
-      <c r="S2" s="394"/>
-      <c r="T2" s="394"/>
+      <c r="B2" s="395"/>
+      <c r="C2" s="395"/>
+      <c r="D2" s="395"/>
+      <c r="E2" s="395"/>
+      <c r="F2" s="395"/>
+      <c r="G2" s="395"/>
+      <c r="H2" s="395"/>
+      <c r="I2" s="395"/>
+      <c r="J2" s="395"/>
+      <c r="K2" s="395"/>
+      <c r="L2" s="395"/>
+      <c r="M2" s="395"/>
+      <c r="N2" s="395"/>
+      <c r="O2" s="395"/>
+      <c r="P2" s="395"/>
+      <c r="Q2" s="395"/>
+      <c r="R2" s="395"/>
+      <c r="S2" s="395"/>
+      <c r="T2" s="395"/>
     </row>
     <row r="3" spans="1:27" s="60" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="395" t="s">
+      <c r="A3" s="396" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="396"/>
-      <c r="C3" s="396"/>
-      <c r="D3" s="396"/>
-      <c r="E3" s="396"/>
-      <c r="F3" s="396"/>
-      <c r="G3" s="396"/>
-      <c r="H3" s="396"/>
-      <c r="I3" s="396"/>
-      <c r="J3" s="396"/>
-      <c r="K3" s="396"/>
-      <c r="L3" s="396"/>
-      <c r="M3" s="396"/>
-      <c r="N3" s="396"/>
-      <c r="O3" s="396"/>
-      <c r="P3" s="396"/>
-      <c r="Q3" s="396"/>
-      <c r="R3" s="396"/>
-      <c r="S3" s="396"/>
-      <c r="T3" s="397"/>
+      <c r="B3" s="397"/>
+      <c r="C3" s="397"/>
+      <c r="D3" s="397"/>
+      <c r="E3" s="397"/>
+      <c r="F3" s="397"/>
+      <c r="G3" s="397"/>
+      <c r="H3" s="397"/>
+      <c r="I3" s="397"/>
+      <c r="J3" s="397"/>
+      <c r="K3" s="397"/>
+      <c r="L3" s="397"/>
+      <c r="M3" s="397"/>
+      <c r="N3" s="397"/>
+      <c r="O3" s="397"/>
+      <c r="P3" s="397"/>
+      <c r="Q3" s="397"/>
+      <c r="R3" s="397"/>
+      <c r="S3" s="397"/>
+      <c r="T3" s="398"/>
       <c r="V3" s="45"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
@@ -6599,61 +6617,61 @@
       <c r="AA3" s="16"/>
     </row>
     <row r="4" spans="1:27" s="61" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="398" t="s">
+      <c r="A4" s="399" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="400" t="s">
+      <c r="B4" s="401" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="402" t="s">
+      <c r="C4" s="392" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="402" t="s">
+      <c r="D4" s="392" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="402" t="s">
+      <c r="E4" s="392" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="402" t="s">
+      <c r="F4" s="392" t="s">
         <v>214</v>
       </c>
-      <c r="G4" s="402" t="s">
+      <c r="G4" s="392" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="402" t="s">
+      <c r="H4" s="392" t="s">
         <v>248</v>
       </c>
-      <c r="I4" s="402" t="s">
+      <c r="I4" s="392" t="s">
         <v>247</v>
       </c>
-      <c r="J4" s="402" t="s">
+      <c r="J4" s="392" t="s">
         <v>256</v>
       </c>
-      <c r="K4" s="402" t="s">
+      <c r="K4" s="392" t="s">
         <v>99</v>
       </c>
-      <c r="L4" s="402" t="s">
+      <c r="L4" s="392" t="s">
         <v>209</v>
       </c>
-      <c r="M4" s="402" t="s">
+      <c r="M4" s="392" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="402" t="s">
+      <c r="N4" s="392" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="402" t="s">
+      <c r="O4" s="392" t="s">
         <v>89</v>
       </c>
-      <c r="P4" s="402" t="s">
+      <c r="P4" s="392" t="s">
         <v>208</v>
       </c>
-      <c r="Q4" s="402" t="s">
+      <c r="Q4" s="392" t="s">
         <v>34</v>
       </c>
-      <c r="R4" s="406" t="s">
+      <c r="R4" s="405" t="s">
         <v>94</v>
       </c>
-      <c r="S4" s="404" t="s">
+      <c r="S4" s="403" t="s">
         <v>215</v>
       </c>
       <c r="T4" s="115" t="s">
@@ -6666,25 +6684,25 @@
       <c r="Z4" s="63"/>
     </row>
     <row r="5" spans="1:27" s="61" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="399"/>
-      <c r="B5" s="401"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="403"/>
-      <c r="E5" s="403"/>
-      <c r="F5" s="403"/>
-      <c r="G5" s="403"/>
-      <c r="H5" s="403"/>
-      <c r="I5" s="403"/>
-      <c r="J5" s="403"/>
-      <c r="K5" s="403"/>
-      <c r="L5" s="403"/>
-      <c r="M5" s="403"/>
-      <c r="N5" s="403"/>
-      <c r="O5" s="403"/>
-      <c r="P5" s="403"/>
-      <c r="Q5" s="403"/>
-      <c r="R5" s="407"/>
-      <c r="S5" s="405"/>
+      <c r="A5" s="400"/>
+      <c r="B5" s="402"/>
+      <c r="C5" s="393"/>
+      <c r="D5" s="393"/>
+      <c r="E5" s="393"/>
+      <c r="F5" s="393"/>
+      <c r="G5" s="393"/>
+      <c r="H5" s="393"/>
+      <c r="I5" s="393"/>
+      <c r="J5" s="393"/>
+      <c r="K5" s="393"/>
+      <c r="L5" s="393"/>
+      <c r="M5" s="393"/>
+      <c r="N5" s="393"/>
+      <c r="O5" s="393"/>
+      <c r="P5" s="393"/>
+      <c r="Q5" s="393"/>
+      <c r="R5" s="406"/>
+      <c r="S5" s="404"/>
       <c r="T5" s="116" t="s">
         <v>35</v>
       </c>
@@ -7335,28 +7353,40 @@
       <c r="V21" s="6"/>
     </row>
     <row r="22" spans="1:26" s="13" customFormat="1">
-      <c r="A22" s="68"/>
-      <c r="B22" s="76"/>
+      <c r="A22" s="68" t="s">
+        <v>265</v>
+      </c>
+      <c r="B22" s="76">
+        <v>500</v>
+      </c>
       <c r="C22" s="69"/>
       <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="E22" s="77">
+        <v>2300</v>
+      </c>
       <c r="F22" s="77"/>
       <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
+      <c r="H22" s="77">
+        <v>100</v>
+      </c>
       <c r="I22" s="77"/>
       <c r="J22" s="77"/>
       <c r="K22" s="77"/>
       <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
+      <c r="M22" s="77">
+        <v>60</v>
+      </c>
       <c r="N22" s="77"/>
       <c r="O22" s="77"/>
       <c r="P22" s="77"/>
-      <c r="Q22" s="105"/>
+      <c r="Q22" s="105">
+        <v>290</v>
+      </c>
       <c r="R22" s="77"/>
       <c r="S22" s="79"/>
       <c r="T22" s="73">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3250</v>
       </c>
       <c r="U22" s="74"/>
       <c r="V22" s="6"/>
@@ -7764,7 +7794,7 @@
       </c>
       <c r="B37" s="92">
         <f>SUM(B6:B36)</f>
-        <v>8700</v>
+        <v>9200</v>
       </c>
       <c r="C37" s="93">
         <f t="shared" ref="C37:S37" si="1">SUM(C6:C36)</f>
@@ -7776,7 +7806,7 @@
       </c>
       <c r="E37" s="93">
         <f t="shared" si="1"/>
-        <v>250</v>
+        <v>2550</v>
       </c>
       <c r="F37" s="93">
         <f t="shared" si="1"/>
@@ -7799,7 +7829,7 @@
       </c>
       <c r="M37" s="93">
         <f t="shared" si="1"/>
-        <v>1070</v>
+        <v>1130</v>
       </c>
       <c r="N37" s="93">
         <f t="shared" si="1"/>
@@ -7815,7 +7845,7 @@
       </c>
       <c r="Q37" s="108">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>800</v>
       </c>
       <c r="R37" s="93">
         <f t="shared" si="1"/>
@@ -7827,7 +7857,7 @@
       </c>
       <c r="T37" s="95">
         <f>SUM(T6:T36)</f>
-        <v>37601</v>
+        <v>40851</v>
       </c>
       <c r="V37" s="214"/>
       <c r="W37" s="214"/>
@@ -9842,12 +9872,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A2:T2"/>
     <mergeCell ref="A3:T3"/>
@@ -9864,6 +9888,12 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="R4:R5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9876,8 +9906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR1319"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView topLeftCell="B79" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -9903,14 +9933,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:96" ht="19.5">
-      <c r="A1" s="412" t="s">
+      <c r="A1" s="413" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="413"/>
-      <c r="F1" s="414"/>
+      <c r="B1" s="414"/>
+      <c r="C1" s="414"/>
+      <c r="D1" s="414"/>
+      <c r="E1" s="414"/>
+      <c r="F1" s="415"/>
       <c r="G1" s="54"/>
       <c r="H1" s="132"/>
       <c r="I1" s="132"/>
@@ -10003,14 +10033,14 @@
       <c r="CR1" s="127"/>
     </row>
     <row r="2" spans="1:96" ht="15" customHeight="1">
-      <c r="A2" s="415" t="s">
+      <c r="A2" s="416" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="416"/>
-      <c r="C2" s="416"/>
-      <c r="D2" s="416"/>
-      <c r="E2" s="416"/>
-      <c r="F2" s="417"/>
+      <c r="B2" s="417"/>
+      <c r="C2" s="417"/>
+      <c r="D2" s="417"/>
+      <c r="E2" s="417"/>
+      <c r="F2" s="418"/>
       <c r="G2" s="54"/>
       <c r="H2" s="132"/>
       <c r="I2" s="132"/>
@@ -10103,14 +10133,14 @@
       <c r="CR2" s="127"/>
     </row>
     <row r="3" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A3" s="418" t="s">
+      <c r="A3" s="419" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="419"/>
-      <c r="C3" s="419"/>
-      <c r="D3" s="419"/>
-      <c r="E3" s="419"/>
-      <c r="F3" s="420"/>
+      <c r="B3" s="420"/>
+      <c r="C3" s="420"/>
+      <c r="D3" s="420"/>
+      <c r="E3" s="420"/>
+      <c r="F3" s="421"/>
       <c r="G3" s="54"/>
       <c r="H3" s="132"/>
       <c r="I3" s="132"/>
@@ -12059,13 +12089,21 @@
       <c r="CR20" s="127"/>
     </row>
     <row r="21" spans="1:96">
-      <c r="A21" s="164"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="44"/>
+      <c r="A21" s="164" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="44">
+        <v>85170</v>
+      </c>
+      <c r="C21" s="47">
+        <v>-123849</v>
+      </c>
+      <c r="D21" s="44">
+        <v>3250</v>
+      </c>
       <c r="E21" s="44">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-120599</v>
       </c>
       <c r="F21" s="159"/>
       <c r="G21" s="132"/>
@@ -13276,23 +13314,23 @@
       </c>
       <c r="B33" s="212">
         <f>SUM(B5:B32)</f>
-        <v>4993488</v>
+        <v>5078658</v>
       </c>
       <c r="C33" s="213">
         <f>SUM(C5:C32)</f>
-        <v>5927588</v>
+        <v>5803739</v>
       </c>
       <c r="D33" s="212">
         <f>SUM(D5:D32)</f>
-        <v>40025</v>
+        <v>43275</v>
       </c>
       <c r="E33" s="212">
         <f>SUM(E5:E32)</f>
-        <v>5967613</v>
+        <v>5847014</v>
       </c>
       <c r="F33" s="212">
         <f>B33-E33</f>
-        <v>-974125</v>
+        <v>-768356</v>
       </c>
       <c r="G33" s="128"/>
       <c r="H33" s="129"/>
@@ -13485,12 +13523,12 @@
     </row>
     <row r="35" spans="1:96" ht="13.5" thickBot="1">
       <c r="A35" s="122"/>
-      <c r="B35" s="422" t="s">
+      <c r="B35" s="410" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="422"/>
-      <c r="D35" s="422"/>
-      <c r="E35" s="422"/>
+      <c r="C35" s="410"/>
+      <c r="D35" s="410"/>
+      <c r="E35" s="410"/>
       <c r="F35" s="123"/>
       <c r="G35" s="128"/>
       <c r="H35" s="129"/>
@@ -14347,9 +14385,9 @@
       <c r="D43" s="188"/>
       <c r="E43" s="160"/>
       <c r="F43" s="123"/>
-      <c r="G43" s="408"/>
-      <c r="H43" s="408"/>
-      <c r="I43" s="408"/>
+      <c r="G43" s="411"/>
+      <c r="H43" s="411"/>
+      <c r="I43" s="411"/>
       <c r="J43" s="54"/>
       <c r="K43" s="132"/>
       <c r="L43" s="54"/>
@@ -17673,10 +17711,10 @@
       </c>
       <c r="C72" s="235"/>
       <c r="D72" s="236">
-        <v>388553</v>
+        <v>386823</v>
       </c>
       <c r="E72" s="238" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F72" s="123"/>
       <c r="G72" s="158" t="s">
@@ -18141,10 +18179,10 @@
       </c>
       <c r="C76" s="235"/>
       <c r="D76" s="236">
-        <v>167420</v>
+        <v>155520</v>
       </c>
       <c r="E76" s="238" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="F76" s="121"/>
       <c r="G76" s="158" t="s">
@@ -18257,11 +18295,11 @@
         <v>77</v>
       </c>
       <c r="C77" s="235"/>
-      <c r="D77" s="386">
-        <v>435682</v>
+      <c r="D77" s="236">
+        <v>476450</v>
       </c>
       <c r="E77" s="238" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F77" s="121"/>
       <c r="G77" s="169" t="s">
@@ -18378,7 +18416,7 @@
         <v>56020</v>
       </c>
       <c r="E78" s="238" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="F78" s="121"/>
       <c r="G78" s="169" t="s">
@@ -18608,11 +18646,11 @@
         <v>88</v>
       </c>
       <c r="C80" s="235"/>
-      <c r="D80" s="386">
-        <v>398392</v>
+      <c r="D80" s="236">
+        <v>442113</v>
       </c>
       <c r="E80" s="247" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F80" s="121"/>
       <c r="G80" s="169"/>
@@ -18717,11 +18755,11 @@
         <v>81</v>
       </c>
       <c r="C81" s="235"/>
-      <c r="D81" s="386">
-        <v>283730</v>
+      <c r="D81" s="236">
+        <v>418640</v>
       </c>
       <c r="E81" s="238" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F81" s="121"/>
       <c r="G81" s="169" t="s">
@@ -19832,14 +19870,14 @@
       <c r="CR90" s="127"/>
     </row>
     <row r="91" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A91" s="409" t="s">
+      <c r="A91" s="408" t="s">
         <v>24</v>
       </c>
-      <c r="B91" s="410"/>
-      <c r="C91" s="411"/>
+      <c r="B91" s="409"/>
+      <c r="C91" s="412"/>
       <c r="D91" s="191">
         <f>SUM(D37:D90)</f>
-        <v>4830559</v>
+        <v>5036328</v>
       </c>
       <c r="E91" s="187"/>
       <c r="F91" s="127"/>
@@ -20040,14 +20078,14 @@
       <c r="CR92" s="127"/>
     </row>
     <row r="93" spans="1:96" ht="13.5" thickBot="1">
-      <c r="A93" s="409" t="s">
+      <c r="A93" s="408" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="410"/>
-      <c r="C93" s="410"/>
+      <c r="B93" s="409"/>
+      <c r="C93" s="409"/>
       <c r="D93" s="191">
         <f>D91+L93</f>
-        <v>4830559</v>
+        <v>5036328</v>
       </c>
       <c r="E93" s="187"/>
       <c r="F93" s="127"/>
@@ -20250,9 +20288,9 @@
       <c r="CR94" s="127"/>
     </row>
     <row r="95" spans="1:96" ht="15.75">
-      <c r="A95" s="421"/>
-      <c r="B95" s="421"/>
-      <c r="C95" s="421"/>
+      <c r="A95" s="407"/>
+      <c r="B95" s="407"/>
+      <c r="C95" s="407"/>
       <c r="D95" s="373"/>
       <c r="E95" s="127"/>
       <c r="F95" s="127"/>
@@ -20838,9 +20876,9 @@
       <c r="CR100" s="127"/>
     </row>
     <row r="101" spans="1:96" s="46" customFormat="1" ht="15.75">
-      <c r="A101" s="421"/>
-      <c r="B101" s="421"/>
-      <c r="C101" s="421"/>
+      <c r="A101" s="407"/>
+      <c r="B101" s="407"/>
+      <c r="C101" s="407"/>
       <c r="D101" s="373"/>
       <c r="E101" s="54"/>
       <c r="F101" s="54"/>
@@ -21069,9 +21107,9 @@
       <c r="W105" s="54"/>
     </row>
     <row r="106" spans="1:96" s="127" customFormat="1" ht="15.75">
-      <c r="A106" s="421"/>
-      <c r="B106" s="421"/>
-      <c r="C106" s="421"/>
+      <c r="A106" s="407"/>
+      <c r="B106" s="407"/>
+      <c r="C106" s="407"/>
       <c r="D106" s="373"/>
       <c r="G106" s="54"/>
       <c r="H106" s="132"/>
@@ -30157,16 +30195,16 @@
     <sortCondition ref="A46"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
     <mergeCell ref="A95:C95"/>
     <mergeCell ref="A101:C101"/>
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -30182,7 +30220,7 @@
   <dimension ref="A1:M213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E34"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -30203,46 +30241,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26.25">
-      <c r="A1" s="423" t="s">
+      <c r="A1" s="425" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="424"/>
-      <c r="C1" s="424"/>
-      <c r="D1" s="424"/>
-      <c r="E1" s="425"/>
+      <c r="B1" s="426"/>
+      <c r="C1" s="426"/>
+      <c r="D1" s="426"/>
+      <c r="E1" s="427"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="20.25">
-      <c r="A2" s="432" t="s">
+      <c r="A2" s="434" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="433"/>
-      <c r="C2" s="433"/>
-      <c r="D2" s="433"/>
-      <c r="E2" s="434"/>
+      <c r="B2" s="435"/>
+      <c r="C2" s="435"/>
+      <c r="D2" s="435"/>
+      <c r="E2" s="436"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="23.25">
-      <c r="A3" s="426" t="s">
+      <c r="A3" s="428" t="s">
         <v>266</v>
       </c>
-      <c r="B3" s="427"/>
-      <c r="C3" s="427"/>
-      <c r="D3" s="427"/>
-      <c r="E3" s="428"/>
+      <c r="B3" s="429"/>
+      <c r="C3" s="429"/>
+      <c r="D3" s="429"/>
+      <c r="E3" s="430"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:13" ht="23.25">
-      <c r="A4" s="435" t="s">
+      <c r="A4" s="437" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="436"/>
-      <c r="C4" s="436"/>
-      <c r="D4" s="436"/>
-      <c r="E4" s="437"/>
+      <c r="B4" s="438"/>
+      <c r="C4" s="438"/>
+      <c r="D4" s="438"/>
+      <c r="E4" s="439"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
     </row>
@@ -30308,7 +30346,7 @@
         <v>63</v>
       </c>
       <c r="E7" s="219">
-        <v>335948.99300000072</v>
+        <v>288860.99300000072</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="384">
@@ -30358,14 +30396,14 @@
         <v>80</v>
       </c>
       <c r="B9" s="206">
-        <v>37601</v>
+        <v>40851</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="294" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="286">
-        <v>4998190</v>
+        <v>5036328</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="384">
@@ -30411,10 +30449,10 @@
       <c r="I10" s="385" t="s">
         <v>265</v>
       </c>
-      <c r="K10" s="438" t="s">
+      <c r="K10" s="422" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="438"/>
+      <c r="L10" s="422"/>
       <c r="M10" s="351">
         <f>M8-M9</f>
         <v>2395155</v>
@@ -30426,14 +30464,14 @@
       </c>
       <c r="B11" s="382">
         <f>B8-B9</f>
-        <v>50016.993000000002</v>
+        <v>46766.993000000002</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="37" t="s">
         <v>95</v>
       </c>
       <c r="E11" s="221">
-        <v>263400</v>
+        <v>269100</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="383">
@@ -30474,10 +30512,10 @@
       <c r="I12" s="346" t="s">
         <v>257</v>
       </c>
-      <c r="K12" s="438" t="s">
+      <c r="K12" s="422" t="s">
         <v>221</v>
       </c>
-      <c r="L12" s="438"/>
+      <c r="L12" s="422"/>
       <c r="M12" s="351">
         <f>M10+M11</f>
         <v>2801314</v>
@@ -30521,10 +30559,10 @@
         <v>93480</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="K14" s="438" t="s">
+      <c r="K14" s="422" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="438"/>
+      <c r="L14" s="422"/>
       <c r="M14" s="351">
         <f>M13+M12</f>
         <v>2894794</v>
@@ -30545,10 +30583,10 @@
       <c r="D16" s="267"/>
       <c r="E16" s="268"/>
       <c r="F16" s="5"/>
-      <c r="K16" s="439" t="s">
+      <c r="K16" s="423" t="s">
         <v>226</v>
       </c>
-      <c r="L16" s="439"/>
+      <c r="L16" s="423"/>
       <c r="M16" s="353">
         <v>2943313</v>
       </c>
@@ -30559,7 +30597,7 @@
       </c>
       <c r="B17" s="207">
         <f>B5+B11+B14</f>
-        <v>12050016.993000001</v>
+        <v>12046766.993000001</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38" t="s">
@@ -30567,17 +30605,17 @@
       </c>
       <c r="E17" s="221">
         <f>SUM(E5:E16)</f>
-        <v>12050016.993000001</v>
+        <v>12046766.993000001</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="103">
         <f>B17-E17</f>
         <v>0</v>
       </c>
-      <c r="K17" s="440" t="s">
+      <c r="K17" s="424" t="s">
         <v>227</v>
       </c>
-      <c r="L17" s="440"/>
+      <c r="L17" s="424"/>
       <c r="M17" s="352">
         <f>M16-M14</f>
         <v>48519</v>
@@ -30595,13 +30633,13 @@
       <c r="G18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="23.25" thickBot="1">
-      <c r="A19" s="429" t="s">
+      <c r="A19" s="431" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="430"/>
-      <c r="C19" s="430"/>
-      <c r="D19" s="430"/>
-      <c r="E19" s="431"/>
+      <c r="B19" s="432"/>
+      <c r="C19" s="432"/>
+      <c r="D19" s="432"/>
+      <c r="E19" s="433"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
     </row>
@@ -31757,16 +31795,16 @@
     <sortCondition ref="D21"/>
   </sortState>
   <mergeCells count="10">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="K12:L12"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K16:L16"/>
     <mergeCell ref="K17:L17"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
@@ -31779,7 +31817,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31795,13 +31833,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" thickBot="1">
-      <c r="A1" s="441" t="s">
+      <c r="A1" s="440" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="442"/>
+      <c r="B1" s="441"/>
       <c r="C1" s="348">
         <f>G8+C73</f>
-        <v>263400</v>
+        <v>269100</v>
       </c>
       <c r="D1" s="228"/>
       <c r="E1" s="227"/>
@@ -32039,11 +32077,11 @@
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="59"/>
-      <c r="F15" s="448" t="s">
+      <c r="F15" s="447" t="s">
         <v>261</v>
       </c>
-      <c r="G15" s="449"/>
-      <c r="H15" s="450"/>
+      <c r="G15" s="448"/>
+      <c r="H15" s="449"/>
     </row>
     <row r="16" spans="1:8" ht="14.25">
       <c r="A16" s="354" t="s">
@@ -32057,11 +32095,11 @@
       </c>
       <c r="D16" s="354"/>
       <c r="E16" s="59"/>
-      <c r="F16" s="445" t="s">
+      <c r="F16" s="444" t="s">
         <v>143</v>
       </c>
-      <c r="G16" s="446"/>
-      <c r="H16" s="447"/>
+      <c r="G16" s="445"/>
+      <c r="H16" s="446"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="24" t="s">
@@ -32234,9 +32272,15 @@
       <c r="H24" s="323"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="342"/>
+      <c r="A25" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="342">
+        <v>5700</v>
+      </c>
       <c r="D25" s="24"/>
       <c r="E25" s="204"/>
       <c r="F25" s="322"/>
@@ -32371,11 +32415,11 @@
       <c r="C38" s="342"/>
       <c r="D38" s="24"/>
       <c r="E38" s="204"/>
-      <c r="F38" s="448" t="s">
+      <c r="F38" s="447" t="s">
         <v>187</v>
       </c>
-      <c r="G38" s="449"/>
-      <c r="H38" s="450"/>
+      <c r="G38" s="448"/>
+      <c r="H38" s="449"/>
     </row>
     <row r="39" spans="1:8" ht="14.25">
       <c r="A39" s="24"/>
@@ -32383,11 +32427,11 @@
       <c r="C39" s="342"/>
       <c r="D39" s="24"/>
       <c r="E39" s="204"/>
-      <c r="F39" s="445" t="s">
+      <c r="F39" s="444" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="446"/>
-      <c r="H39" s="447"/>
+      <c r="G39" s="445"/>
+      <c r="H39" s="446"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="24"/>
@@ -32792,13 +32836,13 @@
       <c r="E72" s="261"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="443" t="s">
+      <c r="A73" s="442" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="444"/>
+      <c r="B73" s="443"/>
       <c r="C73" s="248">
         <f>SUM(C4:C72)</f>
-        <v>213600</v>
+        <v>219300</v>
       </c>
       <c r="D73" s="249"/>
       <c r="E73" s="261"/>
